--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,25 @@
   </si>
   <si>
     <t>消息传递时，对浮点数强转整型，造成小数部分不能显示。定义结构体，传递结构体指针。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标定参数：
+1 标定板厚度：实际厚度
+2 单个像元的宽高（Sx,Sy）:5.2um*5.2um
+3 焦距：12mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">halcon标定助手注意事项
+1. 厚度可以忽略，如果精度要求特别高，需要考虑
+2. 摄像机类型，线阵和面振，面振又分，多项式和除法，多项式用于精度更高的场景
+3. 标定板，黑色三角为第三象限，顺时针方向依次为x轴和y轴
+4. 标定板图像占图像的四分之一到三分之一，即，黑点像素要大于十个像素点
+5. 标定板图像大于10张
+6. 光线满足黑店和白色灰度值相差大于100
+7. 图像位置，四边，对角线，旋转
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -179,6 +198,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -668,16 +693,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="84.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -694,7 +719,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="1:4" ht="54.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="D3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,6 +110,44 @@
 6. 光线满足黑店和白色灰度值相差大于100
 7. 图像位置，四边，对角线，旋转
 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法修改：现在检测圆的算法，无法检测出长圆。
+统一算法，同时检测出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机移动方式改变：三次或四次寻找目标位置，直到到达目标位置为止。
+原因：标定时，无法保证误差精度。重用标定板，改善空间有限。而且，不使用远心镜头的话，物距越远，累积误差越大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加算法：检测线，与检测圆的算法并行。Excel加标志位区分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始检测前：先测量轴向偏离角度。保存配置文件中，可以更改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面上增加补偿值功能，每次改变，重新计算Excel内容。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel内增加补偿值列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel内增加结果的偏差值，并红色表示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用Resume和Suspend方法，控制处理线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种修改方法并不能将中间结果保存至临时文件。如果断电，之前的所有测量结果将被删除。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,17 +543,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
+    <col min="4" max="4" width="52.875" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,6 +628,125 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42171</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -604,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -681,8 +838,17 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="5">
+        <v>42171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -695,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -724,7 +890,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -221,11 +221,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -235,12 +278,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,17 +605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="52.875" customWidth="1"/>
+    <col min="4" max="4" width="77" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -581,174 +643,197 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>42154</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>42154</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="14">
         <v>42154</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>42171</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>42171</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="14">
         <v>42171</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="14">
         <v>42171</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="14">
         <v>42171</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="14">
         <v>42171</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="A11" s="12">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="14">
         <v>42171</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="13" t="s">
         <v>12</v>
       </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D12" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -762,7 +847,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,51 +888,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="10">
         <v>42154</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="10">
         <v>42154</v>
       </c>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="14">
         <v>42154</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="14">
         <v>42171</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -886,12 +972,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="54.75" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>20</v>
       </c>
     </row>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
     <sheet name="Bug List" sheetId="2" r:id="rId2"/>
     <sheet name="Wiki" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>追加式样</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检讨中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -148,6 +144,15 @@
   </si>
   <si>
     <t>这种修改方法并不能将中间结果保存至临时文件。如果断电，之前的所有测量结果将被删除。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListControl不能实现，需要继承一个子类来实现。
+这个功能不加了，改用Excel自行处理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -303,6 +308,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -617,6 +625,8 @@
     <col min="3" max="3" width="10.875" customWidth="1"/>
     <col min="4" max="4" width="77" customWidth="1"/>
     <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -675,9 +685,11 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F3" s="14">
+        <v>42175</v>
+      </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -710,7 +722,7 @@
         <v>42171</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>12</v>
@@ -729,12 +741,14 @@
         <v>42171</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="14">
+        <v>42175</v>
+      </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -748,7 +762,7 @@
         <v>42171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>12</v>
@@ -767,7 +781,7 @@
         <v>42171</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>12</v>
@@ -786,12 +800,14 @@
         <v>42171</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F9" s="14">
+        <v>42175</v>
+      </c>
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -805,15 +821,17 @@
         <v>42171</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F10" s="14">
+        <v>42175</v>
+      </c>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -824,13 +842,17 @@
         <v>42171</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="F11" s="14">
+        <v>42175</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D12" s="5"/>
@@ -846,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -875,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -892,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="10">
         <v>42154</v>
@@ -901,10 +923,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="10">
         <v>42154</v>
@@ -916,7 +938,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="14">
         <v>42154</v>
@@ -925,16 +947,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="14">
         <v>42171</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -973,12 +995,12 @@
     </row>
     <row r="2" spans="1:4" ht="54.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="D2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -666,9 +666,11 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="F2" s="10">
+        <v>42175</v>
+      </c>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -706,9 +708,11 @@
         <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F4" s="14">
+        <v>42175</v>
+      </c>
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,17 @@
   <si>
     <t>ListControl不能实现，需要继承一个子类来实现。
 这个功能不加了，改用Excel自行处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动测量时，点击【停止】，再【开始】，无法重新开始，且此时无法正常关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程问题：
+1 由于相机标定精度可以保证，所以，只需要调整一次
+2 调整的时候速度要比正常速度慢，以克服惯性产生的误差
+3 Z轴回到上限位时，可以使用更高的速度，节约时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,8 +869,191 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D12" s="5"/>
+    <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="14">
+        <v>42185</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -870,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -962,6 +1156,340 @@
       <c r="H3" s="13" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14">
+        <v>42185</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,14 @@
 1 由于相机标定精度可以保证，所以，只需要调整一次
 2 调整的时候速度要比正常速度慢，以克服惯性产生的误差
 3 Z轴回到上限位时，可以使用更高的速度，节约时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动测量也需要Resume处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,7 +1075,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1131,7 +1139,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1157,8 +1165,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
       <c r="B4" s="13" t="s">
         <v>14</v>
       </c>
@@ -1168,9 +1178,15 @@
       <c r="D4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="14">
+        <v>42186</v>
+      </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,10 @@
   </si>
   <si>
     <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法提取出图像的，直接判定不合格。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +213,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -288,11 +292,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -331,6 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1075,7 +1092,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1190,8 +1207,18 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="19">
+        <v>42188</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>35</v>
+      </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,18 @@
   </si>
   <si>
     <t>无法提取出图像的，直接判定不合格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补偿值，补偿工装的尺寸，即，实际尺寸相加，测量结果相减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查，Excel输出是否支持模板。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1104,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1226,9 +1238,15 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14">
+        <v>42190</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
@@ -1237,8 +1255,12 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="14">
+        <v>42190</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>38</v>
+      </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,10 @@
   </si>
   <si>
     <t>调查，Excel输出是否支持模板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用处理的返回值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -225,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -315,11 +319,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,6 +375,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -664,7 +682,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1104,7 +1122,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1168,7 +1186,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -1194,8 +1212,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
@@ -1231,13 +1249,21 @@
       <c r="D5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14">
+        <v>42191</v>
+      </c>
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="20">
+        <v>5</v>
+      </c>
       <c r="B6" s="13" t="s">
         <v>36</v>
       </c>
@@ -1248,13 +1274,21 @@
         <v>37</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="14">
+        <v>42191</v>
+      </c>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
       <c r="C7" s="14">
         <v>42190</v>
       </c>
@@ -1267,7 +1301,9 @@
       <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="20">
+        <v>7</v>
+      </c>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -1277,7 +1313,9 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1287,7 +1325,9 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="20">
+        <v>9</v>
+      </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -1297,7 +1337,9 @@
       <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -1307,7 +1349,9 @@
       <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="20">
+        <v>11</v>
+      </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -1317,7 +1361,9 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -1327,7 +1373,9 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="20">
+        <v>13</v>
+      </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1337,7 +1385,9 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1347,7 +1397,9 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="20">
+        <v>15</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -1357,7 +1409,9 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1367,7 +1421,9 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="20">
+        <v>17</v>
+      </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1377,7 +1433,9 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -1387,7 +1445,9 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
+      <c r="A20" s="20">
+        <v>19</v>
+      </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,15 +183,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>调查，Excel输出是否支持模板。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用处理的返回值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>补偿值，补偿工装的尺寸，即，实际尺寸相加，测量结果相减</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>调查，Excel输出是否支持模板。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用处理的返回值。</t>
+    <t>调查：图像检测中，边沿检测算法，各个参数的含义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用SaveAs功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意模板不能有合并单元格，Excel操作类里固有的BUG。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,7 +1134,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1262,7 @@
         <v>35</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>15</v>
@@ -1271,7 +1283,7 @@
         <v>42190</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
@@ -1293,20 +1305,34 @@
         <v>42190</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+        <v>37</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
+        <v>42194</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="14">
+        <v>42191</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,6 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -693,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,9 +814,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F5" s="14">
+        <v>42196</v>
+      </c>
       <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -847,9 +856,11 @@
         <v>22</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F7" s="14">
+        <v>42196</v>
+      </c>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -865,7 +876,7 @@
       <c r="D8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="13"/>
@@ -927,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F11" s="14">
         <v>42175</v>
@@ -937,7 +948,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
-      <c r="A12" s="12"/>
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
       <c r="B12" s="13" t="s">
         <v>13</v>
       </c>
@@ -947,12 +960,18 @@
       <c r="D12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
+      <c r="E12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="14">
+        <v>42196</v>
+      </c>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -961,7 +980,9 @@
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -970,7 +991,9 @@
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="12"/>
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -979,7 +1002,9 @@
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -988,7 +1013,9 @@
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -997,7 +1024,9 @@
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -1134,7 +1163,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1334,8 +1363,12 @@
         <v>40</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14">
+        <v>42196</v>
+      </c>
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,10 +63,6 @@
   </si>
   <si>
     <t>测量顺序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -204,6 +200,14 @@
   </si>
   <si>
     <t>注意模板不能有合并单元格，Excel操作类里固有的BUG。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电脑上，最大化后，测量类型，不能选择了。打电脑没有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义测量时，输入X轴的值，一段时间后再输入Y轴和Z轴的值，有时候会无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +241,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,7 +350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -396,7 +394,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -701,7 +698,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -742,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="10">
         <v>42154</v>
@@ -751,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2" s="10">
         <v>42175</v>
@@ -763,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="14">
         <v>42154</v>
@@ -772,7 +769,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="14">
         <v>42175</v>
@@ -784,7 +781,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="14">
         <v>42154</v>
@@ -793,7 +790,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="14">
         <v>42175</v>
@@ -805,16 +802,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="14">
         <v>42171</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="14">
         <v>42196</v>
@@ -826,16 +823,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="14">
         <v>42171</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" s="14">
         <v>42175</v>
@@ -847,16 +844,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="14">
         <v>42171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" s="14">
         <v>42196</v>
@@ -868,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="14">
         <v>42171</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -887,16 +884,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="14">
         <v>42171</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14">
         <v>42175</v>
@@ -908,16 +905,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="14">
         <v>42171</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="14">
         <v>42175</v>
@@ -929,22 +926,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="14">
         <v>42171</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="14">
         <v>42175</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
@@ -952,16 +949,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14">
         <v>42185</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="14">
         <v>42196</v>
@@ -1163,7 +1160,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1191,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>7</v>
@@ -1208,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10">
         <v>42154</v>
@@ -1217,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" s="10">
         <v>42154</v>
@@ -1232,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14">
         <v>42154</v>
@@ -1241,16 +1238,16 @@
         <v>5</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="14">
         <v>42171</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -1258,19 +1255,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="14">
         <v>42185</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="G4" s="14">
         <v>42186</v>
@@ -1282,19 +1279,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="19">
         <v>42188</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="14">
         <v>42191</v>
@@ -1306,17 +1303,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="14">
         <v>42190</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="14">
         <v>42191</v>
@@ -1328,25 +1325,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="14">
         <v>42190</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="14">
         <v>42194</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
@@ -1354,17 +1351,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="14">
         <v>42191</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="14">
         <v>42196</v>
@@ -1375,9 +1372,15 @@
       <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="14">
+        <v>42198</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>42</v>
+      </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
@@ -1387,9 +1390,15 @@
       <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14">
+        <v>42198</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -1711,12 +1720,12 @@
     </row>
     <row r="2" spans="1:4" ht="54.75" thickTop="1" x14ac:dyDescent="0.15">
       <c r="D2" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="121.5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>自定义测量时，输入X轴的值，一段时间后再输入Y轴和Z轴的值，有时候会无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原拟合算法存在误差，改用直接求中心的算法。由于是对称图形，圆使用Region最远两点的中心。椭圆和长方形直接使用中心算法。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -697,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -969,11 +977,21 @@
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="14">
+        <v>42200</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="14">
+        <v>42200</v>
+      </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
@@ -1159,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -216,6 +216,11 @@
   </si>
   <si>
     <t>原拟合算法存在误差，改用直接求中心的算法。由于是对称图形，圆使用Region最远两点的中心。椭圆和长方形直接使用中心算法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴数据是反向的。现在，Z轴有位置模式和速度模式两个方向。在配置文件中使用同一个方向参数控制。而且，Z轴的运动比较复杂，不仅存在位置模式的移动，还有速度模式自动回上端的运动。
+修改方法：直接改逻辑的话，修改量比较大，所以，直接将Z轴数据强制取反。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +711,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -994,13 +999,19 @@
       </c>
       <c r="G13" s="13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="14">
+        <v>42200</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,22 @@
   <si>
     <t>Z轴数据是反向的。现在，Z轴有位置模式和速度模式两个方向。在配置文件中使用同一个方向参数控制。而且，Z轴的运动比较复杂，不仅存在位置模式的移动，还有速度模式自动回上端的运动。
 修改方法：直接改逻辑的话，修改量比较大，所以，直接将Z轴数据强制取反。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量直线的算法没有成功，原因也没有调查。现在，使用替代方案，解决横梁问题，即通过测量周边孔的尺寸来保证横梁的距离。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台刷黑漆后，有严重的反光问题。测量大孔时，没有问题。工装上的孔还有零点孔，再测量时，受到平台底面反光的影响，使其黑色部分灰度值升高，一点“朦胧”的感觉。因此，使用相同的算法不能测量出结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检讨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加“特殊圆孔”算法，专用于这些孔的测量。以区别正常的圆孔测量不受影响。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +727,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,7 +1028,9 @@
       <c r="D14" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
     </row>
@@ -1020,10 +1038,18 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="14">
+        <v>42246</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
     </row>
@@ -1031,12 +1057,24 @@
       <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="14">
+        <v>42246</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="14">
+        <v>42246</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="12">

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
     <sheet name="Bug List" sheetId="2" r:id="rId2"/>
     <sheet name="Wiki" sheetId="3" r:id="rId3"/>
+    <sheet name="Picture" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +238,24 @@
   </si>
   <si>
     <t>增加“特殊圆孔”算法，专用于这些孔的测量。以区别正常的圆孔测量不受影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偏离角：
+1.原偏离角算法不正确
+2.统一偏离角计算方法
+3.考虑到引领过程即使偏离小的距离，也可以通过相机的算法进行检测，因此，现在，引领过程不考虑偏离角的影响
+4.X向偏离角对测量结果影响很小，（偏离角本身不会超过10°），因此测量结果只对Y方向值进行补正
+5.每次检测需要测量偏离角，因此，主画面菜单栏里偏离角的计算方式不再合适。在自动测量中的第一项和零点作为计算偏离角的两个标准点。每次执行自动测量重新计算并保存偏离角
+6.自定义测量增加偏离角的补正功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主画面增加偏离角补正，在执行重新测量结果时，先执行偏离角的补正，在执行XYZ三个数值的补正。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相机拍照时，补偿次数从配置文件读取，这样可以自由设定。实验结果表明，补偿次数，对整个测量时间影响不大，大多数时间都消耗在电机行走指定行程上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -726,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1076,35 +1095,65 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A17" s="12">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
+      <c r="B17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="14">
+        <v>42260</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="14">
+        <v>42260</v>
+      </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14">
+        <v>42260</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="14">
+        <v>42260</v>
+      </c>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
+      <c r="B19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14">
+        <v>42260</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="14">
+        <v>42260</v>
+      </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
@@ -1799,4 +1848,20 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="Wiki" sheetId="3" r:id="rId3"/>
     <sheet name="Picture" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_14">Picture!$A$3</definedName>
+  </definedNames>
   <calcPr calcId="122211" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小电脑上，最大化后，测量类型，不能选择了。打电脑没有问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>自定义测量时，输入X轴的值，一段时间后再输入Y轴和Z轴的值，有时候会无效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,12 +257,93 @@
     <t>相机拍照时，补偿次数从配置文件读取，这样可以自由设定。实验结果表明，补偿次数，对整个测量时间影响不大，大多数时间都消耗在电机行走指定行程上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机板卡断电后，重新上电后，电机的零点丢失了。确认一下板卡掉电参数可不可以保存？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动测量过程中，最大化，最小化，关闭，程序无响应。。。死机？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候，测量结果，整体向后偏移。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机镜头如何自动调焦的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加【自动测量】取消功能后，Excel保存结果时间特别长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光源自动调整，Excel中，增加光源参数项，每次执行测量前，向光源调节器发送光的亮度数据。
+光源控制器是串口通信，需要增加串口通信部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小电脑上，最大化后，测量类型，不能选择了。大电脑没有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1，【保存结果】时间长
+原因是新的Excel模板中，增加了【打印】页，导致每次保存时会20~30秒之间，如果电脑中运行其他的程序的话，会更严重。【打印】中各种引用，每次存储都会重新运算一次，所以速度很慢。
+2，【保存结果】后，死机
+确认没问题，需要确认当时的手顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件放置长时间，死机。。。内存泄漏？vld调查一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【自动测量】执行过程中，点击关闭程序，程序卡死。没有发送WM_QUIT消息吗？两个线程没有同时关闭吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">【自动测量】执行过程中，死机。
+可能的手顺是：
+1，点击【开始】执行自动测量
+2，点击【停止】按钮
+3，点击【开始】继续执行
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在【开始】的动作是，ResumeThread后，向线程发送自动测量开始消息，那么原来被挂起的线程动作是什么？电机还在运行，不得而知，可能就是导致程序死的原因。【停止】的动作，其实不是真正意义上的停止，而是暂停，SuspendThread而已。
+方案1：
+UI线程执行过程中，不允许再次发送启动消息。这样，需要UI线程的执行结果返回给主线程。
+方案2：
+重新定义【开始】【停止】动作，这个是根本的解决方法。
+【开始】：启动自动测量或启动被暂停的测量，变【暂停】
+【暂停】：暂停正在执行的自动测量
+【停止】：终止正在执行的自动测量，需要在自动测量循环中嵌入一个终止标志位。
+方案3：
+1，【开始】后，Disable【开始】按钮，“自动测量”结束后，UI线程通知主线程，Enable【开始】按钮
+2，【停止】后，中断“自动测量”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按方案3修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存泄漏检测工具Visual Leak Detector使用
+1，http://www.codeproject.com/Articles/9815/Visual-Leak-Detector-Enhanced-Memory-Leak-Detectio
+2，http://vld.codeplex.com/releases/view/619330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +356,23 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -395,10 +492,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -431,20 +529,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -454,6 +585,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="C:\Users\Administrator\Documents\Tencent Files\1163398597\Image\C2C\6B7A9EC5A6C7C29B86CEA4E8C8CD17EF.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="342900"/>
+          <a:ext cx="26593800" cy="19716750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -743,10 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -988,7 +1180,7 @@
       <c r="F11" s="14">
         <v>42175</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1018,13 +1210,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14">
         <v>42200</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>28</v>
@@ -1039,13 +1231,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="14">
         <v>42200</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>28</v>
@@ -1058,16 +1250,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="14">
         <v>42246</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1077,13 +1269,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="14">
         <v>42246</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>28</v>
@@ -1092,7 +1284,7 @@
         <v>42246</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="148.5" x14ac:dyDescent="0.15">
@@ -1106,7 +1298,7 @@
         <v>42260</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>28</v>
@@ -1127,7 +1319,7 @@
         <v>42260</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>28</v>
@@ -1146,7 +1338,7 @@
         <v>42260</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="13" t="s">
         <v>28</v>
@@ -1159,8 +1351,12 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="C20" s="14">
+        <v>42490</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -1168,17 +1364,25 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="C21" s="14">
+        <v>42490</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="14">
+        <v>42490</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -1254,15 +1458,6 @@
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
       <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1275,29 +1470,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.125" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="1" max="1" width="9" style="28"/>
+    <col min="3" max="3" width="10.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.125" customWidth="1"/>
+    <col min="5" max="5" width="45.375" customWidth="1"/>
     <col min="6" max="6" width="14.125" customWidth="1"/>
     <col min="7" max="7" width="12.875" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1317,13 +1513,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16">
+      <c r="A2" s="25">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="19">
         <v>42154</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -1341,13 +1537,13 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="12">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="20">
         <v>42154</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -1367,13 +1563,13 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="20">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="20">
         <v>42185</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -1391,16 +1587,16 @@
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="21">
         <v>42188</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
@@ -1415,13 +1611,13 @@
       <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="20">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="20">
         <v>42190</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -1437,13 +1633,13 @@
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="20">
         <v>42190</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -1463,13 +1659,13 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="20">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="20">
         <v>42191</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -1485,17 +1681,17 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="20">
         <v>42198</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1503,101 +1699,151 @@
       <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="20">
+      <c r="A10" s="27">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="20">
         <v>42198</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+    <row r="11" spans="1:8" ht="310.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="20">
+      <c r="B11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="20">
+        <v>42487</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="20">
+        <v>42490</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="27">
         <v>11</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="20">
+        <v>42489</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="12">
+    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="20">
+        <v>42490</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="F13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="14">
+        <v>42491</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="27">
         <v>13</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="20">
+        <v>42490</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="12">
+    <row r="15" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="20">
+        <v>42490</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="20">
+      <c r="A16" s="27">
         <v>15</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="20">
+        <v>42490</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="12">
+      <c r="A17" s="26">
         <v>16</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -1605,11 +1851,11 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="20">
+      <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1617,11 +1863,11 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="12">
+      <c r="A19" s="26">
         <v>18</v>
       </c>
       <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
@@ -1629,11 +1875,11 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="20">
+      <c r="A20" s="27">
         <v>19</v>
       </c>
       <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="13"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
@@ -1641,9 +1887,9 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
@@ -1651,9 +1897,9 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
@@ -1661,9 +1907,9 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -1671,9 +1917,9 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="13"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -1681,9 +1927,9 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="13"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -1691,9 +1937,9 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
+      <c r="A26" s="26"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="13"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -1701,9 +1947,9 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="13"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -1711,9 +1957,9 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -1721,9 +1967,9 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -1731,9 +1977,9 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -1741,9 +1987,9 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -1751,9 +1997,9 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -1761,9 +2007,9 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -1771,9 +2017,9 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -1781,9 +2027,9 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -1791,9 +2037,9 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="12"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -1802,16 +2048,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" location="_14" display="_14"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1844,6 +2094,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1852,16 +2107,26 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="要求式样" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,10 @@
     <t>内存泄漏检测工具Visual Leak Detector使用
 1，http://www.codeproject.com/Articles/9815/Visual-Leak-Detector-Enhanced-Memory-Leak-Detectio
 2，http://vld.codeplex.com/releases/view/619330</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原因是新表的两个位置有合并单元格【中兴4620车架检验记录表】和【生产班组：】。咱们的模板是不允许合并单元格操作的，否则位置就计算不正确了。让他们把新表这两个地方取消合并单元格就行了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -936,9 +940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1470,9 +1474,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1820,7 +1824,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="54" x14ac:dyDescent="0.15">
       <c r="A16" s="27">
         <v>15</v>
       </c>
@@ -1833,9 +1837,15 @@
       <c r="D16" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="E16" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="20">
+        <v>42491</v>
+      </c>
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">

--- a/问题管理表.xlsx
+++ b/问题管理表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,18 @@
   </si>
   <si>
     <t>原因是新表的两个位置有合并单元格【中兴4620车架检验记录表】和【生产班组：】。咱们的模板是不允许合并单元格操作的，否则位置就计算不正确了。让他们把新表这两个地方取消合并单元格就行了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急停时，停掉所有电机，需要急停按钮给电机控制卡一个输入信号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z轴单独测量，将现有测量流程分开，即第一遍只测X,Y轴数据，第二遍，去掉相机，更换测量头，再测量Z轴数据。
+变更理由：Z轴测量数据不准确，可能的原因是相机表面太大，对不部分工件，不同的面接触工件时测量的数据不一致。
+注意：
+1，考虑到这种方式并不是根本解决方法，（测量两边也未必能够解决Z轴测量不准确问题。）单独建立Branch管理
+2，第二遍测量时，需要读取测量后的X,Y值，而非图纸尺寸的X,Y值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -941,8 +953,8 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1394,17 +1406,25 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="C23" s="14">
+        <v>42501</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="121.5" x14ac:dyDescent="0.15">
       <c r="A24" s="12"/>
       <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="14">
+        <v>42504</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
